--- a/similarities/split_global/harmonic_similarity_timestamps_101.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,454 +484,504 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.440000'), ('0:01:49.520000', '0:01:54.200000'), ('0:00:32.200000', '0:00:36.200000')]</t>
+          <t>('0:01:43.660000', '0:01:50.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000'), ('0:01:19.420000', '0:01:26.020000'), ('0:00:37.540000', '0:00:42.720000')]</t>
+          <t>('0:01:41.500000', '0:01:48.300000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=103.66</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=37.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=101.5</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:7/C#', 'D:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:20.560000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:56.943000', '0:01:03.992000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=56.943']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['F#:7', 'B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['D:7', 'G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:58.584331', '0:02:07.280204')]</t>
+          <t>('0:00:09.540000', '0:00:12.320000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:46.580000', '0:00:48.520000')]</t>
+          <t>('0:00:42.620000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=9.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=46.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=42.62</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:05.800000', '0:00:15.900000')]</t>
+          <t>('0:00:40.460000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+          <t>('0:00:01.420000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=5.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=59.26']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=1.42</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
+          <t>('0:00:37.633000', '0:00:41.753000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:00:58.670000', '0:01:04.130000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G', 'A:min', 'G', 'C', 'F']]</t>
+          <t>['A:7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'B:min', 'A', 'D', 'G']]</t>
+          <t>['A:7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:10.664331', '0:00:19.963922')]</t>
+          <t>('0:00:44.660000', '0:00:48.530000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:38.708000', '0:00:45.209000')]</t>
+          <t>('0:00:56.720000', '0:01:02.210000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=10.664331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=44.66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=38.708']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=56.72</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:03:45.320000', '0:03:52.800000')]</t>
+          <t>('0:02:08.760000', '0:02:14.600000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:02.060000', '0:04:14.260000')]</t>
+          <t>('0:00:01.302038', '0:00:08.110136')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=225.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=242.06']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+          <t>('0:00:40.960000', '0:00:50.540000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:04.280000', '0:01:14.480000')]</t>
+          <t>('0:01:02', '0:01:07.100000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=57.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=40.96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=62.0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min'], ['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:16.480000'), ('0:00:06.220000', '0:00:14.320000')]</t>
+          <t>('0:01:04.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:08.220000'), ('0:00:00.660000', '0:00:06.480000')]</t>
+          <t>('0:01:02.200000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=6.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=62.2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:28')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -941,125 +991,129 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['A#:maj', 'D#:7/C#', 'G#:maj/C']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab'], ['Bb', 'Eb:7', 'Ab']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Eb:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:15.640000', '0:00:24.280000'), ('0:00:59.600000', '0:01:04.080000')]</t>
+          <t>('0:01:04.080000', '0:01:17.220000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:07.604557', '0:00:16.370090'), ('0:00:23.428956', '0:00:30.731632')]</t>
+          <t>('0:00:33.480000', '0:00:46.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=59.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=7.604557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000'), ('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000'), ('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:00:48', '0:00:52.200000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1068,106 +1122,112 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:10.980000', '0:01:27.200000')]</t>
+          <t>('0:00:33.920000', '0:00:41.920000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:01:04.420000', '0:01:09.700000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=33.92</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=64.42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:22.040000', '0:00:28.660000')]</t>
+          <t>('0:00:01.440000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:10.980000', '0:00:16.420000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=22.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=10.98']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
